--- a/Numero de alunos.xlsx
+++ b/Numero de alunos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\FIAP\Passos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31805EA7-8FD6-480E-B235-3A2E8BDB31EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF84E446-C4FA-4859-90F4-E78C3F43737C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="3135" windowWidth="17250" windowHeight="8265" xr2:uid="{A454869B-A04A-42F9-9458-3BCD69B9D87F}"/>
   </bookViews>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>70 300 550 812 841 824 Alcançamos 1000 alunos e fechamos o ano com 970</t>
+    <t>ds</t>
   </si>
   <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>qtd_aluno</t>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -66,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -74,12 +71,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,81 +453,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585ABAEB-7C61-47A9-A5C5-6F72078F3BBC}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2016</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="5">
+        <v>42370</v>
+      </c>
+      <c r="B2" s="2">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2017</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="6">
+        <v>42736</v>
+      </c>
+      <c r="B3" s="1">
         <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2018</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="6">
+        <v>43101</v>
+      </c>
+      <c r="B4" s="1">
         <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2019</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="6">
+        <v>43466</v>
+      </c>
+      <c r="B5" s="1">
         <v>812</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2020</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B6" s="1">
         <v>841</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2021</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="6">
+        <v>44197</v>
+      </c>
+      <c r="B7" s="1">
         <v>824</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2022</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="6">
+        <v>44562</v>
+      </c>
+      <c r="B8" s="1">
         <v>970</v>
-      </c>
-    </row>
-    <row r="24" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N24" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Numero de alunos.xlsx
+++ b/Numero de alunos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\FIAP\Passos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF84E446-C4FA-4859-90F4-E78C3F43737C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D3F226-8DD7-4BA2-B288-E40551FC41CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3135" windowWidth="17250" windowHeight="8265" xr2:uid="{A454869B-A04A-42F9-9458-3BCD69B9D87F}"/>
+    <workbookView xWindow="-20610" yWindow="-90" windowWidth="20730" windowHeight="11310" xr2:uid="{A454869B-A04A-42F9-9458-3BCD69B9D87F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -63,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -127,11 +125,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -139,6 +148,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585ABAEB-7C61-47A9-A5C5-6F72078F3BBC}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,6 +540,14 @@
         <v>970</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>44927</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
